--- a/frontend/sample-data/example.xlsx
+++ b/frontend/sample-data/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/projects/company-structure-visualiser/frontend/sample-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5764AA-18A7-7146-A168-9EEA22593590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A63BA-D70E-3B4D-BAA9-89D251E4B462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15080" yWindow="14120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C72CA1D-AC67-412F-876E-BA83F1FEA99D}"/>
   </bookViews>
@@ -596,7 +596,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -911,6 +911,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL</oddFooter>
   </headerFooter>
@@ -922,7 +923,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -951,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="12">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -962,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="12">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -973,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="12">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -984,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1017,7 +1018,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="12">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1028,7 +1029,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="12">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1039,7 +1040,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/sample-data/example.xlsx
+++ b/frontend/sample-data/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/projects/company-structure-visualiser/frontend/sample-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A63BA-D70E-3B4D-BAA9-89D251E4B462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9A75D7-43F1-7C4F-BC24-74E603B61C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="14120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0C72CA1D-AC67-412F-876E-BA83F1FEA99D}"/>
+    <workbookView xWindow="21760" yWindow="12280" windowWidth="29040" windowHeight="15720" xr2:uid="{0C72CA1D-AC67-412F-876E-BA83F1FEA99D}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Name of Group:</t>
   </si>
@@ -66,75 +66,39 @@
     <t>Company</t>
   </si>
   <si>
-    <t>N/a: UPE</t>
-  </si>
-  <si>
     <t>UNITED STATES</t>
   </si>
   <si>
-    <t>Entity name 2</t>
-  </si>
-  <si>
     <t>Company Hybrid</t>
   </si>
   <si>
     <t>AUSTRALIA</t>
   </si>
   <si>
-    <t>Entity name 3</t>
-  </si>
-  <si>
     <t>Partnership</t>
   </si>
   <si>
     <t>NEW ZEALAND</t>
   </si>
   <si>
-    <t>Entity name 4</t>
-  </si>
-  <si>
     <t>Partnership Hybrid</t>
   </si>
   <si>
     <t>CHILE</t>
   </si>
   <si>
-    <t>Entity name 5</t>
-  </si>
-  <si>
     <t>Branch</t>
   </si>
   <si>
     <t>BERMUDA</t>
   </si>
   <si>
-    <t>Entity name 6</t>
-  </si>
-  <si>
     <t>Trust</t>
   </si>
   <si>
-    <t>Entity name 7</t>
-  </si>
-  <si>
-    <t>Entity name 8</t>
-  </si>
-  <si>
-    <t>Entity name 9</t>
-  </si>
-  <si>
-    <t>Entity name 10</t>
-  </si>
-  <si>
     <t>Entity type</t>
   </si>
   <si>
-    <t>Parent entity name or TIN</t>
-  </si>
-  <si>
-    <t>Ownership %</t>
-  </si>
-  <si>
     <t>Tax Jurisdiction</t>
   </si>
   <si>
@@ -148,6 +112,36 @@
   </si>
   <si>
     <t>Percentage Ownership</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Anthropic</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Deepmind</t>
+  </si>
+  <si>
+    <t>JetBrains</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Facebook</t>
   </si>
 </sst>
 </file>
@@ -237,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -261,9 +255,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -591,25 +582,23 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C8" sqref="C8"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="10" customWidth="1"/>
-    <col min="3" max="5" width="23.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="10"/>
+    <col min="1" max="1" width="23.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="9" customWidth="1"/>
+    <col min="3" max="5" width="23.6640625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,10 +608,8 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -632,10 +619,8 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -645,21 +630,17 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
@@ -668,24 +649,18 @@
         <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>12345670</v>
@@ -694,129 +669,88 @@
       <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>12345671</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="str">
-        <f>B6</f>
-        <v>Entity name 1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
         <v>12345672</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="str">
-        <f>B7</f>
-        <v>Entity name 2</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7">
         <v>12345673</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8" t="str">
-        <f>B7</f>
-        <v>Entity name 2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>12345674</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8" t="str">
-        <f>B7</f>
-        <v>Entity name 2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>12345675</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8" t="str">
-        <f>B10</f>
-        <v>Entity name 5</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>12345676</v>
@@ -825,45 +759,30 @@
       <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="8" t="str">
-        <f>B6</f>
-        <v>Entity name 1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
         <v>12345677</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="8" t="str">
-        <f>B12</f>
-        <v>Entity name 7</v>
-      </c>
-      <c r="G13" s="9">
-        <f>G12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>12345678</v>
@@ -873,21 +792,13 @@
         <f>E13</f>
         <v>Company</v>
       </c>
-      <c r="F14" s="8" t="str">
-        <f>B7</f>
-        <v>Entity name 2</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" ref="G14:G15" si="0">G13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7">
         <v>12345679</v>
@@ -896,16 +807,8 @@
         <v>7</v>
       </c>
       <c r="E15" s="8" t="str">
-        <f t="shared" ref="E15" si="1">E14</f>
+        <f t="shared" ref="E15" si="0">E14</f>
         <v>Company</v>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f>B14</f>
-        <v>Entity name 9</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -922,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1570FF-74C3-5B4E-A418-05315813B6CA}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -935,111 +838,111 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="12">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11">
         <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="12">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="12">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="12">
+        <v>29</v>
+      </c>
+      <c r="C8" s="11">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="12">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="12">
+        <v>33</v>
+      </c>
+      <c r="C10" s="11">
         <v>0.99</v>
       </c>
     </row>
